--- a/artfynd/A 52838-2020.xlsx
+++ b/artfynd/A 52838-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68146859</v>
+        <v>68145535</v>
       </c>
       <c r="B2" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,36 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Nygård, 1,1 km S-ut, Upl</t>
+          <t>Nygård, 1,0 km S-ut, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>653808.9988882283</v>
+        <v>653895.8525253957</v>
       </c>
       <c r="R2" t="n">
-        <v>6643999.173554195</v>
+        <v>6644088.162086425</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,7 +777,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -799,10 +799,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68145535</v>
+        <v>109439564</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>56717</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,44 +811,51 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>103008</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Curruca curruca</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Nygård, 1,0 km S-ut, Upl</t>
+          <t>Skogsängen, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>653895.8525253957</v>
+        <v>653910.4788543681</v>
       </c>
       <c r="R3" t="n">
-        <v>6644088.162086425</v>
+        <v>6644087.263707791</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -872,22 +879,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,26 +909,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>Jimmy Peterson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Henry Åkerström, Thorleif Joelson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
-        </is>
-      </c>
+          <t>Jimmy Peterson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68146871</v>
+        <v>68146859</v>
       </c>
       <c r="B4" t="n">
-        <v>4711</v>
+        <v>90674</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,43 +937,36 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100299</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nygård, 1,0 km S-ut, Upl</t>
+          <t>Nygård, 1,1 km S-ut, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>653842.0029573618</v>
+        <v>653808.9988882283</v>
       </c>
       <c r="R4" t="n">
-        <v>6644028.167799042</v>
+        <v>6643999.173554195</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,28 +1017,9 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1063,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68146872</v>
+        <v>68146871</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>4711</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,21 +1056,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>100299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1208,10 +1185,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109439564</v>
+        <v>68146872</v>
       </c>
       <c r="B6" t="n">
-        <v>56717</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1220,51 +1197,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103008</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Curruca curruca</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Skogsängen, Upl</t>
+          <t>Nygård, 1,0 km S-ut, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>653910.4788543681</v>
+        <v>653842.0029573618</v>
       </c>
       <c r="R6" t="n">
-        <v>6644087.263707791</v>
+        <v>6644028.167799042</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1288,22 +1264,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2017-10-14</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2017-10-14</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1314,19 +1290,43 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jimmy Peterson</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jimmy Peterson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Henry Åkerström, Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 52838-2020.xlsx
+++ b/artfynd/A 52838-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68145535</v>
+        <v>68146859</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,36 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Nygård, 1,0 km S-ut, Upl</t>
+          <t>Nygård, 1,1 km S-ut, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>653895.8525253957</v>
+        <v>653808.9988882283</v>
       </c>
       <c r="R2" t="n">
-        <v>6644088.162086425</v>
+        <v>6643999.173554195</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -777,6 +776,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -799,10 +799,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109439564</v>
+        <v>68145535</v>
       </c>
       <c r="B3" t="n">
-        <v>56717</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,51 +811,44 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103008</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Curruca curruca</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skogsängen, Upl</t>
+          <t>Nygård, 1,0 km S-ut, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>653910.4788543681</v>
+        <v>653895.8525253957</v>
       </c>
       <c r="R3" t="n">
-        <v>6644087.263707791</v>
+        <v>6644088.162086425</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -879,22 +872,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2017-10-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2017-10-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,22 +902,26 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jimmy Peterson</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jimmy Peterson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Henry Åkerström, Thorleif Joelson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68146859</v>
+        <v>68146871</v>
       </c>
       <c r="B4" t="n">
-        <v>90674</v>
+        <v>4711</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,36 +934,43 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>100299</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nygård, 1,1 km S-ut, Upl</t>
+          <t>Nygård, 1,0 km S-ut, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>653808.9988882283</v>
+        <v>653842.0029573618</v>
       </c>
       <c r="R4" t="n">
-        <v>6643999.173554195</v>
+        <v>6644028.167799042</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,9 +1021,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1040,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68146871</v>
+        <v>68146872</v>
       </c>
       <c r="B5" t="n">
-        <v>4711</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,21 +1079,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100299</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1185,10 +1208,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68146872</v>
+        <v>109439564</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>56717</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1197,50 +1220,51 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>103008</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Curruca curruca</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Nygård, 1,0 km S-ut, Upl</t>
+          <t>Skogsängen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>653842.0029573618</v>
+        <v>653910.4788543681</v>
       </c>
       <c r="R6" t="n">
-        <v>6644028.167799042</v>
+        <v>6644087.263707791</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1264,22 +1288,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1290,43 +1314,141 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>Jimmy Peterson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Henry Åkerström, Thorleif Joelson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Naturskyddsföreningen Uppsala, skogsgruppexkursion</t>
-        </is>
-      </c>
+          <t>Jimmy Peterson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112536523</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Skogsängen, Upl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>653910</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6644087</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Vaksala</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Jimmy Peterson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Jimmy Peterson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
